--- a/sks-kobe-t/pdf/report10.xlsx
+++ b/sks-kobe-t/pdf/report10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079540A9-6D18-473F-8686-AB947CF829BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50EC414-6669-42B5-85A1-AFE1FB45D2A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">　備　考 </t>
     <rPh sb="1" eb="4">
@@ -224,6 +224,10 @@
   </si>
   <si>
     <t>待機場B場外</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最大待機台数</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1233,8 +1237,8 @@
   </sheetPr>
   <dimension ref="A1:H601"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1343,7 +1347,9 @@
       <c r="E11" s="67"/>
     </row>
     <row r="12" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
+      <c r="A12" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="B12" s="22" t="s">
         <v>18</v>
       </c>
